--- a/finetuning/it_datasets/it_dataset/it_bekalta_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_bekalta_dataset.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a great Cafe spot, check out Salon de The l'AQUARIUM located at Salon de The l'AQUARIUM, Bekalta. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe options to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.846993, 10.1627175. For more details, visit their website or call them at 97 097 128.</t>
+          <t>Nestled in the heart of Bekalta, Salon de The l'AQUARIUM invites you to indulge in a cozy and serene atmosphere. This popular cafe boasts a 4.1-star rating, showcasing its excellence in providing delightful culinary experiences. Open from 7 AM to midnight every day, it offers a welcoming space to savor your favorite coffee creations and delectable treats.</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for something fun to do, be sure to check out Restaurant Thapsus (Restaurant Du Port De Bekalta ) at J2FX+C3C. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.5, it's a must-visit spot. It's open from 10:00-22:00 on weekdays. To get there, use these GPS coordinates: 49.4033805, 3.1134214. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Thapsus+%28Restaurant+Du+Port+De+Bekalta+%29/data=!4m7!3m6!1s0x13023cf5597d1eb1:0x3d2b8865c12e2e47!8m2!3d35.6235518!4d11.0476277!16s%2Fg%2F11g9r5y0nm!19sChIJsR59WfU8AhMRRy4uwWWIKz0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Restaurant Thapsus (Restaurant Du Port De Bekalta) is a restaurant located in Bekalta, Tunisia, coordinates (49.4033805, 3.1134214). Open from 10:00-22:00, the restaurant has an average rating of 4.5 based on 13 reviews.</t>
         </is>
       </c>
     </row>
@@ -852,8 +852,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in bekalta and searching for something to do, look no further than Hamada cafe, located at JX9V+V7M Hamada cafe, Bekalta. 
-This highly-rated spot is ideal for Cafe lovers with an impressive 4.0 rating. Open from 05:00-20:00, it offers a great time. For more information, visit their website at or call them at .</t>
+          <t>Hamada Cafe, located in Bekalta (coordinates: 35.6196426, 10.9932287), is a cozy cafe with a 4.0 rating based on 12 reviews. Operating from 5 AM to 8 PM, it offers a delightful ambiance for you to enjoy a cup of coffee or a light meal.</t>
         </is>
       </c>
     </row>
@@ -956,7 +955,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in Bekalta and looking for a cozy cafe, check out Pavillon Bleu located at J28W+F3C. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.9, it's a must-visit spot. It's open 24 hours a day, so you can enjoy a cup of coffee or tea anytime. To get there, use these GPS coordinates: 35.6157795, 10.9908605. For more details, call them at 98 277 114.</t>
+          <t>Pavillon Bleu, located at J28W+F3C pavillon bleu in Bekalta (coordinates: 35.6157795, 10.9908605), is a cafe that provides a 24/7 service. Despite the lack of a description, the cafe has received 8 reviews and boasts an impressive 4.9 rating.</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1054,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a fantastic cafe experience, head to Massous Cafe on JX8Q+MQ6 Massous Cafe. With a stellar rating of 4.7, it's a haven for cafe enthusiasts. The cafe is open daily from 6 AM to 11 PM, so you can enjoy their delicious offerings at your convenience. To get there, you can refer to the coordinates (35.6157795, 10.9908605). Their website and phone number are currently unavailable, but you can visit the cafe to learn more and experience their delectable offerings firsthand.</t>
+          <t>Massous Cafe, located at JX8Q+MQ6 in Bekalta, is a highly rated cafe with a 4.7-star rating out of 7 reviews. Open from 6 am to 11 pm, the cafe offers a cozy and inviting ambiance for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1157,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in Bekalta and looking for a cozy spot to unwind, take a break at Salon De The Kenza, located at JX4X+RC5, Avenue Bahri Brigui. This well-regarded cafe offers a welcoming ambiance for those seeking a delightful coffee experience. With a rating of 4.2, it's a must-visit for cafe enthusiasts. Their hours of operation are from 7:00 AM to 1:01 AM, providing ample time to savor your favorite beverages. To get there, use the GPS coordinates: latitude 35.6157795, longitude 10.9908605. For further details, you can contact them at 51 019 983.</t>
+          <t>Salon De The Kenza is a popular café located in Bekalta, Tunisia. With a 4.2 rating from 6 reviews, this café is known for offering a variety of beverages and snacks. It is situated on avenue bahri brigui (coordinates 35.6157795, 10.9908605) and is open daily from 7 am to 1 am.</t>
         </is>
       </c>
     </row>
@@ -1257,9 +1256,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for something fun to do, check out Cafe Habbechi Mohamed Ali Chraf. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-03:00. To get there, use these GPS coordinates: 35.6157795, 10.9908605.</t>
+          <t>Cafe Habbechi Mohamed Ali Chraf. is a cafe located in bekalta, Tunisia, at the coordinates (35.6157795, 10.9908605). The cafe is open from 7:00 am to 3:00 am and offers a variety of services, including coffee, tea, and snacks. The cafe has received a 4.3 out of 5 star rating from customers, who have praised its friendly staff and delicious food.</t>
         </is>
       </c>
     </row>
@@ -1354,8 +1351,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a great place to relax, visit Cafe Down Town at JX9V+MVW Cafe Down Town, Bekalta. 
-This top-rated tea room has a rating of 5.0 and is a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Down+Town/data=!4m7!3m6!1s0x13023d646ccb29d5:0x5485961ac491e36d!8m2!3d35.6193022!4d10.9946958!16s%2Fg%2F11t7fcnqcr!19sChIJ1SnLbGQ9AhMRbeORxBqWhVQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Down Town is a tea room situated in Bekalta, Tunisia. It currently has a 5.0 rating out of 3 reviews.</t>
         </is>
       </c>
     </row>
@@ -1450,7 +1446,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for something fun to do, check out Cafe restau La Perla located at J2CW+QM Cafe restau La Perla, Bekalta. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.6157795, 10.9908605.</t>
+          <t>Cafe restau La Perla is a cafe located in Bekalta, Tunisia. It offers a wide variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is located at the coordinates (35.6157795, 10.9908605) and is open from 7:00 AM to 12:00 AM every day.</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1545,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in Bekalta and looking for a great Cafe, be sure to check out Cafe Port Bekalta at J2FX+G74. Rated 5.0, this top destination is a must-visit for Cafe lovers. It's open 24/7, so you can stop by anytime. To get there, use these GPS coordinates: 35.61739, 10.99466.</t>
+          <t>Café Port Bekalta is a cafe located in Bekalta, Tunisia. It has a 5.0 rating based on 1 review and is open 24 hours a day.</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1640,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in Bekalta and looking for a great cafe, Sunset Coffee is the place for you! Located at JX8Q+244, this top-rated destination is perfect for those who love cafes. With a rating of 5.0, it's a must-visit spot. It's open during regular business hours, but check their website or call them for more details.</t>
+          <t>Sunset Coffee, an excellent cafe located in Bekalta, is highly rated by its visitors. Its precise coordinates are (35.6157795, 10.9908605). This cafe stands out as a popular destination in the area.</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1739,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for something fun to do, check out cafe Mahata - mqh~ lmHT@ located at JX8R+947 cafe Mahata - mqh~ lmHT@, Bekalta. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: (35.6157795, 10.9908605). For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+Mahata+-+%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D9%85%D8%AD%D8%B7%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x13023dd7b784aeb1:0xaabde4ac6842f315!8m2!3d35.6159238!4d10.9903088!16s%2Fg%2F11t6jbbkwx!19sChIJsa6Et9c9AhMRFfNCaKzkvao?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Cafe Mahata** is a cafe located in Bekalta, Tunisia. It is open from 5am to midnight, 7 days a week. The cafe offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is rated 4.0 out of 5 stars on Google.</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1834,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in Bekalta and looking for something delicious to eat, check out BERICH located at JX9W+G3J BERICH, Unnamed Road. This top-rated restaurant specializes in chicken wings and offers a range of options to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.6157795, 10.9908605.</t>
+          <t>BERICH is a highly-rated restaurant in Bekalta specializing in delectable chicken wings. Its exact location can be found at JX9W+G3J BERICH, Unnamed Road, Bekalta. With its convenient 24-hour operation, you can satisfy your chicken wing cravings anytime.</t>
         </is>
       </c>
     </row>
@@ -1933,7 +1929,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for something fun to do, check out CAFE SPORT located at JXCW+7V6 CAFE SPORT, Bekalta. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at or call them at .</t>
+          <t>**CAFE SPORT** is a cafe located in Bekalta, Tunisia, offering a cozy atmosphere and delicious refreshments. Its exact location can be found at coordinates (35.6157795, 10.9908605), making it a convenient spot for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -2028,9 +2024,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for something fun to do, check out Salines de la Bekalta located at H2CH+PXX Salines de la Bekalta, Bekalta. 
-This top-rated destination is perfect for Ferme aquacole lovers and offers a range of categories. 
-With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 35.61739, 10.99466.</t>
+          <t>Salines de la Bekalta, located in Bekalta, is a notable aquaculture farm in the region. The farm boasts a 3.8-star rating based on reviews. Despite lacking an official website, Salines de la Bekalta has a physical presence at H2CH+PXX Salines de la Bekalta. With coordinates of (35.61739, 10.99466), the farm welcomes visitors interested in experiencing the aquaculture industry firsthand.</t>
         </is>
       </c>
     </row>
@@ -2125,10 +2119,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a reliable real estate company, check out BEKALTA.
-This top-rated destination is perfect for real estate enthusiasts and offers a range of services to choose from.
-With a rating of 4.0, it's a must-visit spot.
-For more details, visit their website at https://www.google.com/maps/place/BEKALTA/data=!4m7!3m6!1s0x13021793692dd5f9:0xd291c58d657713bf!8m2!3d35.6381064!4d10.9699468!16s%2Fg%2F11rpmb4s0l!19sChIJ-dUtaZMXAhMRvxN3ZY3FkdI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Bekalta is a real estate company located in Tabulbah, Tunisia. With a 4.0 rating based on 2 reviews, they offer a range of real estate services to meet the needs of their clients. Their geolocation is (35.6420129, 10.9657155), providing easy access to their office for potential clients.</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2214,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a fun place to dance the night away, check out Societe Rahma Text located at JX8X+XQ9 Societe Rahma Text, Unnamed Road, Bekalta. This top-rated discotheque has a rating of 5.0, making it a must-visit spot for dance lovers. To get there, use these GPS coordinates: 35.6157795, 10.9908605. For more details, call them at 54 834 604.</t>
+          <t>Societe Rahma Text, a lively discotheque located at (35.6157795, 10.9908605) in Societe Rahma Text, Unnamed Road, Bekalta, invites party-goers to dance the night away.</t>
         </is>
       </c>
     </row>
@@ -2326,8 +2317,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a tasty meal, check out El Gabiano located at J2HR+M26 El Gabiano, Dimess, Bekalta. 
-This top-rated spot is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on [No data]. To get there, use these GPS coordinates: 35.6157795, 10.9908605. For more details, visit their website at [No data] or call them at 24 305 367.</t>
+          <t>El Gabiano is a restaurant located in Bekalta, Tunisia, offering a variety of dishes with a focus on seafood. It is situated at the coordinates (35.6157795, 10.9908605), making it easily accessible for customers. El Gabiano has received positive reviews, with a 4.1 rating out of 5, and offers a pleasant dining experience with its waterfront location.</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2416,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a top-rated Restaurant, check out Restaurant Thapsus (Restaurant Du Port De Bekalta ) located at J2FX+C3C Restaurant Thapsus (Restaurant Du Port De Bekalta ). With a rating of 4.5, it's a must-visit spot. It's open during these hours: 10:00-22:00. To get there, use these GPS coordinates: 49.4033805, 3.1134214.</t>
+          <t>Restaurant Thapsus (Restaurant Du Port De Bekalta ) is a 4.5-star restaurant located in Bekalta. It is open every day from 10:00-22:00 and offers a variety of dishes. The restaurant is located at the coordinates (49.4033805, 3.1134214).</t>
         </is>
       </c>
     </row>
@@ -2521,9 +2511,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for something fun to do, check out Pizzeria CEZAR located at JX9P+8XP Pizzeria CEZAR, boulevard de l'environnement, Bekalta. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.9, it's a must-visit spot. To get there, use these GPS coordinates: 35.6157795, 10.9908605. For more details, visit their website at  or call them at .</t>
+          <t>Pizzeria CEZAR is a highly-rated pizzeria located in Bekalta. The pizzeria offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at  JX9P+8XP boulevard de l'environnement, Bekalta, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -2626,9 +2614,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for something fun to do, check out Ottimo Pizza located at JX9W+F83 Ottimo Pizza, Bekalta. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on mardi. To get there, use these GPS coordinates: 35.6157795, 10.9908605. For more details, call them at 23 956 390.</t>
+          <t>Ottimo Pizza is a Pizzeria located in Bekalta, Tunisia (coordinates 35.6157795, 10.9908605). It is open 24/7 and closed on Tuesdays. The Pizzeria has a rating of 4.3 and offers a variety of pizzas.</t>
         </is>
       </c>
     </row>
@@ -2727,9 +2713,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in bekalta and seeking a delectable dining experience, visit CHAPATI LOUSIF, conveniently located at JX9V+5RW CHAPATI LOUSIF. 
-This highly-rated restaurant is renowned for its exceptional culinary offerings and boasts a specialization in Restaurant cuisine. 
-Rated an impressive 4.7 out of 5, it's a culinary gem not to be missed. Its operational hours are from 10:00-01:30 on weekdays, providing ample time to savor their delectable dishes. To reach CHAPATI LOUSIF, simply follow the GPS coordinates (35.6157795, 10.9908605) or give them a call at 99 166 059 for further inquiries.</t>
+          <t>CHAPATI LOUSIF, a highly-rated restaurant located at (35.6157795, 10.9908605) in Bekalta, specializes in providing a delectable dining experience. Open from 10:00 to 01:30 on weekdays, it offers a warm and welcoming ambiance for its patrons. With a 4.7 rating based on 3 reviews, CHAPATI LOUSIF has garnered praise for its exceptional cuisine and attentive service.</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2804,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a Restaurant, check out Rays located at JX9R+2G7 Rays, Unnamed Road,, Bekalta. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.6157795, 10.9908605. For more details, visit their website at https://www.google.com/maps/place/Rays/data=!4m7!3m6!1s0x13023de42b50dc17:0xceafe67df4a30b79!8m2!3d35.6175442!4d10.9912976!16s%2Fg%2F11rfc9qbvh!19sChIJF9xQK-Q9AhMReQuj9H3mr84?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Rays is a 5-star restaurant located in Bekalta, Tunisia. Its exact location is at (35.6157795, 10.9908605) and its address is JX9R+2G7, Unnamed Road,, Bekalta.</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2903,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you find yourself in bekalta seeking a delectable dining experience, look no further than Pizzeria EL BECHA, conveniently located at JX8R+669 Pizzeria EL BECHA, Avenu Ahmed Machta, Bekalta. This highly acclaimed pizzeria tantalizes taste buds with its exceptional pizzas. With a stellar rating of 5.0, this establishment is a culinary gem not to be missed. Although its operating hours are currently unavailable, Pizzeria EL BECHA remains closed on unspecified days. For further inquiries, feel free to reach out to them at 73 477 192 or visit their website (if available) for additional information.</t>
+          <t>Pizzeria EL BECHA is a pizzeria located in bekalta (35.6157795, 10.9908605). The place has a 5.0 rating and offers delivery and take-out services. Catering options are also available upon request.</t>
         </is>
       </c>
     </row>
@@ -3014,7 +2998,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a top-rated Restaurant specialise dans les ailes de poulet, check out BERICH. Located at JX9W+G3J BERICH, Unnamed Road, Bekalta, this destination is perfect for those who love Restaurant specialise dans les ailes de poulet. With a rating of 5.0, it's a must-visit spot. It's open 24h/24, so you can visit anytime. For more details, visit their website at https://www.google.com/maps/place/BERICH/data=!4m7!3m6!1s0x13023db47f3e4ce3:0xa1184651d0f39f46!8m2!3d35.6188341!4d10.9951332!16s%2Fg%2F11pc7ryzv1!19sChIJ40w-f7Q9AhMRRp_z0FFGGKE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>BERICH is a highly rated restaurant specializing in mouthwatering chicken wings. Operating 24 hours a day, it is conveniently located at (35.6157795, 10.9908605) in JX9W+G3J BERICH, Unnamed Road, Bekalta. With its stellar 5.0 rating and glowing reviews, it is the perfect destination for any chicken wing enthusiast.</t>
         </is>
       </c>
     </row>
@@ -3113,8 +3097,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in Bekalta and looking for a delicious dining experience, check out Restaurant Thapsus (Restaurant Du Port De Bekalta) located at J2FX+C3C. 
-This top-rated destination is perfect for restaurant cuisine lovers and offers a range of delectable options to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 10:00-22:00, but closed on undefined. To get there, use these GPS coordinates: 49.4033805, 3.1134214. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Thapsus+%28Restaurant+Du+Port+De+Bekalta+%29/data=!4m7!3m6!1s0x13023cf5597d1eb1:0x3d2b8865c12e2e47!8m2!3d35.6235518!4d11.0476277!16s%2Fg%2F11g9r5y0nm!19sChIJsR59WfU8AhMRRy4uwWWIKz0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at undefined.</t>
+          <t>Restaurant Thapsus (Restaurant Du Port De Bekalta) is a highly-rated restaurant located in bekalta (with coordinates of (49.4033805, 3.1134214)) and offers a great dining experience.</t>
         </is>
       </c>
     </row>
@@ -3205,10 +3188,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a reliable transportation service, head to Baghdadi Touta bus station (STS) at Rue Baghdadi, Bekalta. 
-This top-rated destination is a must-visit spot for Service de transport lovers. 
-With a rating of 4.0, it's highly recommended. 
-For more details, visit their website or call them at the provided information.</t>
+          <t>Baghdadi Touta bus station (STS), located at the coordinates (35.57031, 11.01407) in Bekalta, is a service station offering transportation services. It has received a rating of 4.0 based on one review and has a primary category of Service de transport.</t>
         </is>
       </c>
     </row>
@@ -3303,8 +3283,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t xml:space="preserve">If you're in bekalta and looking for something fun to do, check out Bekalta located at Bekalta, Al-Baqalitah. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 3.8, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.6157795, 10.9908605. </t>
+          <t>Bekalta is a train station located in Al-Baqalitah, Tunisia, with coordinates (35.6157795, 10.9908605). It has a rating of 3.8 based on 8 reviews.</t>
         </is>
       </c>
     </row>
@@ -3395,9 +3374,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in bekalta and looking for a reliable Service de transport, check out Baghdadi Touta bus station (STS) located at H26C+GMH Baghdadi Touta bus station (STS), Rue Baghdadi, Bekalta. 
-This top-rated destination offers a range of Service de transport to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.57031, 11.01407. For more details, visit their website at https://www.google.com/maps/place/Baghdadi+Touta+bus+station+%28STS%29/data=!4m7!3m6!1s0x1302231b41971d17:0x1864554971cc4059!8m2!3d35.5613113!4d11.0217454!16s%2Fg%2F11lm5x48cx!19sChIJFx2XQRsjAhMRWUDMcUlVZBg?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Baghdadi Touta bus station (STS) is a transportation service located in Bekalta, Tunisia. It offers bus services from and within Bekalta., The station has a rating of 4.0 stars out of 1 review.</t>
         </is>
       </c>
     </row>
